--- a/examples/prevalence_by_age.xlsx
+++ b/examples/prevalence_by_age.xlsx
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0708888528366e-05</v>
+        <v>5.924856695013572e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>5.472779980941594e-21</v>
+        <v>1.434707276828122e-20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001593989438055431</v>
+        <v>0.0003091106218091297</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003172655919611494</v>
+        <v>0.0008359975950490381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001460112163831336</v>
+        <v>0.000446422478635882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000537853394908609</v>
+        <v>0.001298463270639136</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0006038222953939405</v>
+        <v>0.001612746623147921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002901654104128878</v>
+        <v>0.0009043626654657446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009728101860005364</v>
+        <v>0.002435299007685504</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0008903789988267259</v>
+        <v>0.002389495651246854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004421469721780517</v>
+        <v>0.001361992370835722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001428198869338254</v>
+        <v>0.003574820110689875</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001176935702259499</v>
+        <v>0.003166244679345727</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005803297509327322</v>
+        <v>0.001843729711495819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001872739838787234</v>
+        <v>0.004754002869828408</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001463492405692276</v>
+        <v>0.003942993707444572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007252076009758363</v>
+        <v>0.002243054045215156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002324786592195363</v>
+        <v>0.005851576374251024</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001750049109125084</v>
+        <v>0.004719742735543513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008823448655474757</v>
+        <v>0.002716146236788277</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002791976472568073</v>
+        <v>0.007023856347257409</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002036605812557879</v>
+        <v>0.005496491763642468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001028780216055984</v>
+        <v>0.003152768119405605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00325037664653824</v>
+        <v>0.008157000631982932</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00232316251599065</v>
+        <v>0.006273240791741257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001165574471598269</v>
+        <v>0.003613657767435562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003701065452179446</v>
+        <v>0.009305588375208165</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002609719219423458</v>
+        <v>0.00704998981984026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001305740602232343</v>
+        <v>0.004065720231812666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004156417226043841</v>
+        <v>0.01045818012732701</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.002896275922856309</v>
+        <v>0.007826738847939062</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001448633704731851</v>
+        <v>0.00449100984309193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.004612657164044924</v>
+        <v>0.01158001846593145</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007174002755609866</v>
+        <v>0.01085694852916643</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005169077788245927</v>
+        <v>0.00766404479070011</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00927062323404108</v>
+        <v>0.0144665243083189</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01145172958836341</v>
+        <v>0.01388715821039384</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008349676850530766</v>
+        <v>0.01005111298991749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01490055529336155</v>
+        <v>0.018014083574382</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01572945642111686</v>
+        <v>0.01691736789162152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01107053081959659</v>
+        <v>0.01225375530973293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02051088331915917</v>
+        <v>0.02224411401536081</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0200071832538702</v>
+        <v>0.0199475775728488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0140353142004396</v>
+        <v>0.01391870869282667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02643261092810141</v>
+        <v>0.02657848651134706</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02428491008662409</v>
+        <v>0.02297778725407633</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01684257193208835</v>
+        <v>0.01563671461606029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03227835843857381</v>
+        <v>0.03116651769536991</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02856263691937774</v>
+        <v>0.02600799693530398</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01974305332558191</v>
+        <v>0.01728267914890135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03833552051558158</v>
+        <v>0.03583382872065923</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03284036375213172</v>
+        <v>0.02903820661653134</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02247093967393724</v>
+        <v>0.01894487523279523</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04425121133390417</v>
+        <v>0.04063679782415172</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03711809058488464</v>
+        <v>0.03206841629775895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02551727775879882</v>
+        <v>0.02009771564148526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0504587168784482</v>
+        <v>0.04498821007029043</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04139581741763831</v>
+        <v>0.03509862597898636</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02843593164369242</v>
+        <v>0.02158222097519839</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05652545583024073</v>
+        <v>0.04963467722878779</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04567354425039175</v>
+        <v>0.03812883566021336</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03129261932921498</v>
+        <v>0.02313117060307629</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06254572643398225</v>
+        <v>0.05438627530294728</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04772331684791837</v>
+        <v>0.04010624319528339</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03422733348004326</v>
+        <v>0.02721867285318655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06231502557967443</v>
+        <v>0.05528263567505438</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04977308944544489</v>
+        <v>0.04208365073035361</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03744084404049676</v>
+        <v>0.02988066032657152</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06391844085590709</v>
+        <v>0.05577405205044345</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05182286204297036</v>
+        <v>0.04406105826542295</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03913324071862893</v>
+        <v>0.03206916621867974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06573916494395649</v>
+        <v>0.05736859411730885</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05387263464049744</v>
+        <v>0.04603846580049323</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03990577852027795</v>
+        <v>0.03325574819677252</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0681578602514761</v>
+        <v>0.05993825326624014</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05592240723802301</v>
+        <v>0.04801587333556253</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04134783477495417</v>
+        <v>0.03444099019427563</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07254491390219522</v>
+        <v>0.06386183052381894</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05797217983554978</v>
+        <v>0.04999328087063271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04181888554723015</v>
+        <v>0.03468914406233392</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07671046440809047</v>
+        <v>0.06755802037392437</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06002195243307594</v>
+        <v>0.05197068840570321</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04123549047010226</v>
+        <v>0.03495237209324832</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08091268420433043</v>
+        <v>0.07206643889093259</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06207172503060192</v>
+        <v>0.05394809594077438</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04090653593960263</v>
+        <v>0.03472526906931993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08568842274234721</v>
+        <v>0.07670133695131139</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06412149762812759</v>
+        <v>0.05592550347584298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04153712619106606</v>
+        <v>0.03477521407652567</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09184530144493197</v>
+        <v>0.08187483978928922</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0661712702256536</v>
+        <v>0.05790291101091367</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04092405891218043</v>
+        <v>0.033791045897269</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09681929485294669</v>
+        <v>0.0864594369422463</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06457528928032273</v>
+        <v>0.05644783729977902</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04089168958834082</v>
+        <v>0.03441983808333594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09330310396561554</v>
+        <v>0.08354360402132932</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06297930833499187</v>
+        <v>0.05499276358864395</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04103338118543336</v>
+        <v>0.03413912653817877</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08984217760967558</v>
+        <v>0.08005247744921229</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06138332738965961</v>
+        <v>0.05353768987750898</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04036322279881545</v>
+        <v>0.03369760288075323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08598155341918673</v>
+        <v>0.07634355523794613</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05978734644432732</v>
+        <v>0.05208261616637493</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04074463691829958</v>
+        <v>0.03302715913820889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08327301908014692</v>
+        <v>0.07290191811209251</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05819136549899694</v>
+        <v>0.05062754245524063</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03934549365289021</v>
+        <v>0.03261595486555074</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07908650593303758</v>
+        <v>0.07005769055938858</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05659538455366526</v>
+        <v>0.04917246874410578</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03897960786270505</v>
+        <v>0.03245680725691416</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07638011459365079</v>
+        <v>0.06795621990059462</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05499940360833407</v>
+        <v>0.04771739503297098</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03845432120115526</v>
+        <v>0.03183300069684444</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07379639102941404</v>
+        <v>0.06555130897086542</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05340342266300195</v>
+        <v>0.04626232132183686</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03743268435625051</v>
+        <v>0.03067763991437302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07166149576298325</v>
+        <v>0.06336884407731233</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.05180744171767133</v>
+        <v>0.04480724761070239</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03622721626401931</v>
+        <v>0.02988180760950766</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07028580003812675</v>
+        <v>0.06233057885797905</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05021146077234064</v>
+        <v>0.04335217389956701</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03436441105795342</v>
+        <v>0.02695616175548779</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06901601665567947</v>
+        <v>0.05972105970680978</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04947107098543718</v>
+        <v>0.04264952014441528</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03411647130204652</v>
+        <v>0.02796135442435948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06762615504727668</v>
+        <v>0.0595480193212833</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04873068119853567</v>
+        <v>0.04194686638926447</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03392513320439821</v>
+        <v>0.02714662249888828</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06614705595739151</v>
+        <v>0.05733906500216949</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04799029141163345</v>
+        <v>0.04124421263411162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03334421762388925</v>
+        <v>0.02693576405215022</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0645936498934748</v>
+        <v>0.05607209088851194</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04724990162473161</v>
+        <v>0.0405415588789599</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03325332720416418</v>
+        <v>0.02686633933746956</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0635059457996292</v>
+        <v>0.05512488007319036</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04650951183782928</v>
+        <v>0.03983890512380667</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03289599634183732</v>
+        <v>0.02661115396246051</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06241532365717635</v>
+        <v>0.05424798688118411</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04576912205092908</v>
+        <v>0.0391362513686552</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03240467076564951</v>
+        <v>0.02627982285940688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06117105112977315</v>
+        <v>0.05321145038537954</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0450287322640256</v>
+        <v>0.03843359761350321</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03154062660151242</v>
+        <v>0.02539089800572442</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0597193236678652</v>
+        <v>0.05182937888479495</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.04428834247712451</v>
+        <v>0.03773094385835193</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03111220877118007</v>
+        <v>0.02480824980563678</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05900480900813026</v>
+        <v>0.05099447386902329</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04354795269022223</v>
+        <v>0.03702829010319935</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03031035219616636</v>
+        <v>0.02392156450779354</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05811888324753016</v>
+        <v>0.05021723463688078</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04280756290332071</v>
+        <v>0.03632563634804716</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02943558669830976</v>
+        <v>0.02335362345651355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05742240947101249</v>
+        <v>0.04993425824989491</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04227257168470287</v>
+        <v>0.03578390488647844</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02998681920466221</v>
+        <v>0.02335621859340352</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05723905836249856</v>
+        <v>0.04924925524716922</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0417375804660859</v>
+        <v>0.03524217342490832</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02942722000152446</v>
+        <v>0.02331115671874763</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05576585877686481</v>
+        <v>0.04844204914652864</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04120258924746806</v>
+        <v>0.03470044196333993</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0291414334416034</v>
+        <v>0.02255099488130522</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05463729428315385</v>
+        <v>0.04704785952441234</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04066759802885149</v>
+        <v>0.03415871050176957</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02891754222740025</v>
+        <v>0.0229928515019097</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05400122893836313</v>
+        <v>0.0469722283335879</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04013260681023379</v>
+        <v>0.03361697904020038</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02874327587357093</v>
+        <v>0.022371646052539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05349848404808963</v>
+        <v>0.04599808008414002</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03959761559161738</v>
+        <v>0.03307524757863204</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02876238917545301</v>
+        <v>0.0219358908173285</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05340624120168785</v>
+        <v>0.04531765240100961</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0390626243729986</v>
+        <v>0.03253351611706271</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02777472290003445</v>
+        <v>0.02147677717682408</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05237466802462521</v>
+        <v>0.04470707457400137</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03852763315438157</v>
+        <v>0.031991784655493</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02697523082600388</v>
+        <v>0.02084455609424602</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05154261401580662</v>
+        <v>0.04415929132566509</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0379926419357646</v>
+        <v>0.03145005319392401</v>
       </c>
       <c r="C61" t="n">
-        <v>0.02549553517133662</v>
+        <v>0.02022674378418617</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05007892584059016</v>
+        <v>0.04383024601418534</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03745765071714684</v>
+        <v>0.03090832173235413</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02524779583361492</v>
+        <v>0.01911144867956984</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04995221518339035</v>
+        <v>0.04332902517822202</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0368898723940027</v>
+        <v>0.03019218161601174</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02502659974208574</v>
+        <v>0.01901585193411964</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04903253108511887</v>
+        <v>0.04232153199890042</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03632209407085902</v>
+        <v>0.02947604149966855</v>
       </c>
       <c r="C64" t="n">
-        <v>0.02505076479948468</v>
+        <v>0.01861847727750594</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04844865981582518</v>
+        <v>0.04116740286002084</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0357543157477148</v>
+        <v>0.02875990138332533</v>
       </c>
       <c r="C65" t="n">
-        <v>0.02452765208005028</v>
+        <v>0.01806658095005866</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04738271760983106</v>
+        <v>0.03993397058944918</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03518653742457079</v>
+        <v>0.02804376126698254</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02452223186207754</v>
+        <v>0.01766150468063486</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04695663072966623</v>
+        <v>0.03909058440578652</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03461875910142669</v>
+        <v>0.02732762115063889</v>
       </c>
       <c r="C67" t="n">
-        <v>0.02435114247255594</v>
+        <v>0.01724087285586679</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04651776784908311</v>
+        <v>0.03840625093933525</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03405098077828223</v>
+        <v>0.02661148103429594</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02381045250858167</v>
+        <v>0.01682312328179753</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04599172322875088</v>
+        <v>0.03804813218691365</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03348320245513845</v>
+        <v>0.02589534091795215</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02277937511966707</v>
+        <v>0.01586342954781433</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04513914029387871</v>
+        <v>0.03744177893174661</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03291542413199428</v>
+        <v>0.02517920080160973</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02258014532593997</v>
+        <v>0.01477365411683241</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04533283100836641</v>
+        <v>0.03693464215725097</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03234764580885052</v>
+        <v>0.02446306068526675</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02132903456018406</v>
+        <v>0.01368818400589139</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04456610349356226</v>
+        <v>0.03669203821078924</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03177986748570505</v>
+        <v>0.02374692056892316</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0207140059379024</v>
+        <v>0.01216420805959535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04471238744601487</v>
+        <v>0.03612079802960824</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03068573425119002</v>
+        <v>0.02234201623807782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01991058890063964</v>
+        <v>0.01183138127867234</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04239092776536237</v>
+        <v>0.03401461990266503</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02959160101667365</v>
+        <v>0.02093711190723286</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01954413116995375</v>
+        <v>0.01051291004248846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04097380630890345</v>
+        <v>0.03103324456407262</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02849746778215806</v>
+        <v>0.01953220757638773</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01853644142499639</v>
+        <v>0.01025576254754922</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0393433361984506</v>
+        <v>0.0295507665548275</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02740333454764176</v>
+        <v>0.01812730324554256</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0175038646570117</v>
+        <v>0.009187705281802062</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03836032285049084</v>
+        <v>0.0279912545294061</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0263092013131255</v>
+        <v>0.01672239891469732</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01617480551043932</v>
+        <v>0.008069562220858226</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03754184370468074</v>
+        <v>0.02684274812754792</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02521506807860959</v>
+        <v>0.01531749458385217</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01457401557496347</v>
+        <v>0.006699132891687554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03697831960958239</v>
+        <v>0.02580657953564543</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02412093484409401</v>
+        <v>0.01391259025300685</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01223325551418196</v>
+        <v>0.004935378179524853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03645203198005557</v>
+        <v>0.02471385643454723</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02302680160957698</v>
+        <v>0.01250768592216185</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01039923027164155</v>
+        <v>0.003314047207192411</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03656245478298875</v>
+        <v>0.02390328092947482</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02193266837506118</v>
+        <v>0.01110278159131671</v>
       </c>
       <c r="C81" t="n">
-        <v>0.007520187871573204</v>
+        <v>0.001527645370773162</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03581648109873779</v>
+        <v>0.02304862802680016</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02083853514054554</v>
+        <v>0.009697877260471686</v>
       </c>
       <c r="C82" t="n">
-        <v>0.004578701444838712</v>
+        <v>1.40443054824582e-13</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03539173440995227</v>
+        <v>0.02239962314715071</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01928223616802628</v>
+        <v>0.008938592016744991</v>
       </c>
       <c r="C83" t="n">
-        <v>0.004990218103390589</v>
+        <v>2.538705094274894e-11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03367326432923777</v>
+        <v>0.02073433180157442</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0177259371955073</v>
+        <v>0.008179306773018247</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003617496282088929</v>
+        <v>5.629032767647705e-11</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03030527613590598</v>
+        <v>0.0189944111324103</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01616963822298781</v>
+        <v>0.007420021529291707</v>
       </c>
       <c r="C85" t="n">
-        <v>0.003385468333442703</v>
+        <v>7.465466299889042e-11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02855843488997132</v>
+        <v>0.01757095453261646</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01461333925046899</v>
+        <v>0.00666073628556501</v>
       </c>
       <c r="C86" t="n">
-        <v>0.002793229115013141</v>
+        <v>1.039905720562042e-10</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02674011921999874</v>
+        <v>0.01596845747826281</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01305704027794962</v>
+        <v>0.005901451041838507</v>
       </c>
       <c r="C87" t="n">
-        <v>0.00215082294730157</v>
+        <v>7.292246071910659e-11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0251699834287583</v>
+        <v>0.01457087235823897</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01150074130543056</v>
+        <v>0.005142165798111955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001051262910063259</v>
+        <v>7.07465789022637e-11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02351803164796907</v>
+        <v>0.01345591725830993</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.00994444233291145</v>
+        <v>0.004382880554385225</v>
       </c>
       <c r="C89" t="n">
-        <v>2.210323930409464e-05</v>
+        <v>6.03948183718626e-11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02180018521939364</v>
+        <v>0.0124627419824136</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.008388143360392234</v>
+        <v>0.00362359531065864</v>
       </c>
       <c r="C90" t="n">
-        <v>1.513511439625456e-05</v>
+        <v>1.993910608156585e-10</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02103387759310049</v>
+        <v>0.01167294571874416</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.006831844387873029</v>
+        <v>0.002864310066932035</v>
       </c>
       <c r="C91" t="n">
-        <v>1.180372255472113e-06</v>
+        <v>4.827546979213987e-11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02039814351197529</v>
+        <v>0.0109194277797337</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.005275545415353926</v>
+        <v>0.002105024823205482</v>
       </c>
       <c r="C92" t="n">
-        <v>5.809233015756338e-18</v>
+        <v>8.635626891759737e-18</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01965972899244729</v>
+        <v>0.01030760041006124</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.004824054591140044</v>
+        <v>0.001923847581338169</v>
       </c>
       <c r="C93" t="n">
-        <v>1.407873027896686e-12</v>
+        <v>4.828903528387348e-13</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01793567729919959</v>
+        <v>0.009459641600681114</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004372563766926235</v>
+        <v>0.001742670339470859</v>
       </c>
       <c r="C94" t="n">
-        <v>3.525507354661372e-13</v>
+        <v>1.161365329975242e-12</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0163534863520782</v>
+        <v>0.008585988565696331</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003921072942712425</v>
+        <v>0.001561493097603544</v>
       </c>
       <c r="C95" t="n">
-        <v>5.250989861456883e-13</v>
+        <v>6.323561330179682e-13</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01470955822251648</v>
+        <v>0.007694495776423142</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.003469582118498652</v>
+        <v>0.001380315855736274</v>
       </c>
       <c r="C96" t="n">
-        <v>1.888828429683397e-12</v>
+        <v>7.070890231075852e-13</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01301537709901437</v>
+        <v>0.006768242705052043</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.003018091294284814</v>
+        <v>0.001199138613868959</v>
       </c>
       <c r="C97" t="n">
-        <v>8.701954875047905e-13</v>
+        <v>8.446098610799586e-13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01133156909338089</v>
+        <v>0.005864916695978284</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.002566600470071029</v>
+        <v>0.001017961372001652</v>
       </c>
       <c r="C98" t="n">
-        <v>2.216685995923339e-12</v>
+        <v>7.454359606347282e-13</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00969975425960605</v>
+        <v>0.004963086454007758</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002115109645857165</v>
+        <v>0.0008367841301343448</v>
       </c>
       <c r="C99" t="n">
-        <v>2.369783831470107e-12</v>
+        <v>6.462620601894976e-13</v>
       </c>
       <c r="D99" t="n">
-        <v>0.008064732623978428</v>
+        <v>0.004001126074272846</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00166361882164337</v>
+        <v>0.0006556068882670477</v>
       </c>
       <c r="C100" t="n">
-        <v>1.387840239543444e-12</v>
+        <v>1.177095556459524e-12</v>
       </c>
       <c r="D100" t="n">
-        <v>0.006633170504959882</v>
+        <v>0.002997010762396714</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001212127997429551</v>
+        <v>0.0004744296463997477</v>
       </c>
       <c r="C101" t="n">
-        <v>9.254920202073148e-13</v>
+        <v>5.941495026483667e-13</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005648300452644055</v>
+        <v>0.002063942132788833</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +1860,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0007606371732157399</v>
+        <v>0.000293252404532447</v>
       </c>
       <c r="C102" t="n">
-        <v>1.072408245542293e-17</v>
+        <v>3.329841999733961e-19</v>
       </c>
       <c r="D102" t="n">
-        <v>0.004916173379093231</v>
+        <v>0.00144107937286731</v>
       </c>
     </row>
   </sheetData>
